--- a/medicine/Mort/Schoonselhof/Schoonselhof.xlsx
+++ b/medicine/Mort/Schoonselhof/Schoonselhof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schoonselhof est un domaine où se trouve le cimetière municipal de la ville belge d'Anvers. Il est situé sur le territoire des districts de Hoboken et Wilrijk.
 En 1911, à l'initiative de l'échevin de la Culture, Frans van Kuyck, la ville d'Anvers rachète le domaine Schoonselhof pour en faire un cimetière. L'ouverture officielle eut lieu le 1er septembre 1921. En 1936, l'ancien Kielkerkhof est fermé et en 1938, un grand nombre de monuments de ce cimetière sont transférés au Schoonselhof.
-La zone entourant le château était déjà protégée en tant que paysage en 1943[1]. En 1992, le château et la ferme sont protégés en tant que monument[2]. Début août 2007, le cimetière de Schoonselhof est protégé par le ministre Dirk Van Mechelen[3].
+La zone entourant le château était déjà protégée en tant que paysage en 1943. En 1992, le château et la ferme sont protégés en tant que monument. Début août 2007, le cimetière de Schoonselhof est protégé par le ministre Dirk Van Mechelen.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Schoonselhof est aménagé en cimetière-parc et présente une variété de parterres de fleurs et de beaux monuments ainsi qu'une zone aux pierres tombales affaissées, aux inscriptions illisibles et moussues et parsemée de vieux tilleuls. Une autre zone est flanquée de hêtraies sombres et de monuments funéraires où les concepteurs ont travaillé de manière très créative.
 Dans la section juive, les monuments funéraires du cimetière de Kiel ont été rassemblés et deux parcs ont été attribués à la communauté musulmane.
@@ -545,7 +559,9 @@
           <t>Cimetière militaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des cimetières militaires sont également aménagés à Schoonselhof.
 Un parc, le Schoonselhof Cemetery (nl), est aménagé pour les tombes de soldats britanniques avec plus de 1 500 victimes du Commonwealth, principalement de la Seconde Guerre mondiale.
@@ -578,7 +594,9 @@
           <t>Personnalités inhumées au cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Michel Bartosik (1948-2008), poète
 Peter Benoit (1834-1901), premier directeur du Conservatoire d'Anvers
